--- a/Specifications (仕様書)/DD (詳細設計)/HomePage.xlsx
+++ b/Specifications (仕様書)/DD (詳細設計)/HomePage.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
+    <sheet name="Hình" sheetId="2" r:id="rId2"/>
+    <sheet name="Xử lý" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +20,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>Loại đối tượng</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Nút "Cán bộ quản lý"</t>
+  </si>
+  <si>
+    <t>Đối tượng</t>
+  </si>
+  <si>
+    <t>Xử lý frontend</t>
+  </si>
+  <si>
+    <t>Xử lý backend</t>
+  </si>
+  <si>
+    <t>Chuyển đến màn hình Cán Bộ</t>
+  </si>
+  <si>
+    <t>Chuyển đến màn hình Công Dân</t>
+  </si>
+  <si>
+    <t>Không có</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +115,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>608479</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22" y="22"/>
+          <a:ext cx="9142857" cy="5142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,10 +425,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>